--- a/data/trans_dic/P2A_enfcro_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,94; 47,52</t>
+          <t>38,3; 47,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,14; 54,9</t>
+          <t>45,37; 55,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,48; 49,54</t>
+          <t>40,2; 49,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,37; 35,82</t>
+          <t>27,64; 35,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,76; 54,37</t>
+          <t>43,34; 54,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,46; 56,87</t>
+          <t>44,99; 56,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,71; 56,16</t>
+          <t>44,99; 55,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 38,13</t>
+          <t>30,17; 37,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,99; 48,9</t>
+          <t>41,59; 48,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,33; 54,13</t>
+          <t>45,94; 53,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,47; 50,92</t>
+          <t>43,44; 51,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,84; 35,61</t>
+          <t>29,83; 35,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,87; 49,29</t>
+          <t>38,57; 49,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,31; 56,94</t>
+          <t>46,09; 56,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,84; 53,08</t>
+          <t>42,29; 52,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,07; 36,74</t>
+          <t>27,86; 37,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,53; 57,39</t>
+          <t>46,81; 57,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,45; 66,43</t>
+          <t>55,76; 67,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,65; 54,61</t>
+          <t>44,28; 54,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,23; 34,02</t>
+          <t>26,38; 34,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,87; 52,25</t>
+          <t>44,82; 52,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,21; 60,01</t>
+          <t>51,94; 59,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,69; 52,22</t>
+          <t>44,6; 51,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,41; 34,19</t>
+          <t>28,55; 34,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,8; 49,65</t>
+          <t>40,95; 49,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,85; 61,15</t>
+          <t>52,71; 61,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,91; 59,4</t>
+          <t>50,77; 59,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 33,02</t>
+          <t>7,37; 33,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,91; 63,85</t>
+          <t>48,4; 63,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,36; 75,81</t>
+          <t>64,18; 75,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,69; 73,34</t>
+          <t>58,65; 73,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,14; 50,37</t>
+          <t>38,46; 50,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44,27; 51,52</t>
+          <t>43,59; 51,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,57; 64,2</t>
+          <t>57,65; 64,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,37; 61,75</t>
+          <t>54,15; 61,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 36,38</t>
+          <t>10,26; 36,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,52; 51,11</t>
+          <t>45,8; 51,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,12; 60,35</t>
+          <t>54,16; 59,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,05; 55,98</t>
+          <t>50,1; 56,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,94; 40,2</t>
+          <t>33,99; 40,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,96; 63,37</t>
+          <t>55,97; 62,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,33; 66,79</t>
+          <t>59,5; 66,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,07; 56,95</t>
+          <t>50,12; 57,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,02; 73,78</t>
+          <t>36,01; 73,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,02; 54,68</t>
+          <t>50,43; 54,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,05; 61,63</t>
+          <t>56,84; 61,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,88; 55,44</t>
+          <t>50,72; 55,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,47; 61,71</t>
+          <t>36,26; 59,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,21; 54,08</t>
+          <t>43,47; 53,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,13; 60,67</t>
+          <t>52,12; 60,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,7; 56,42</t>
+          <t>49,07; 57,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,63; 42,82</t>
+          <t>33,74; 43,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,58; 64,74</t>
+          <t>56,62; 65,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,79; 76,43</t>
+          <t>70,13; 76,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,78; 73,48</t>
+          <t>66,52; 73,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,21; 48,72</t>
+          <t>30,67; 48,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,02; 59,52</t>
+          <t>52,69; 59,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,83; 69,32</t>
+          <t>63,56; 69,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,42; 65,09</t>
+          <t>59,37; 64,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,94; 45,0</t>
+          <t>34,21; 45,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 28,75</t>
+          <t>18,65; 28,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,36; 43,36</t>
+          <t>31,28; 42,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,73; 37,41</t>
+          <t>27,22; 37,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,87; 36,36</t>
+          <t>16,28; 35,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,75; 68,96</t>
+          <t>64,0; 69,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>69,8; 75,05</t>
+          <t>69,62; 75,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,71; 70,49</t>
+          <t>64,56; 70,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,4; 48,17</t>
+          <t>41,33; 47,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>55,41; 60,7</t>
+          <t>55,9; 60,79</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,07; 68,21</t>
+          <t>63,07; 68,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57,49; 62,93</t>
+          <t>57,46; 62,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,87; 43,96</t>
+          <t>36,74; 43,41</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,65; 46,18</t>
+          <t>42,59; 46,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>52,19; 55,57</t>
+          <t>52,12; 55,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,09; 51,43</t>
+          <t>48,03; 51,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,18; 34,8</t>
+          <t>25,1; 34,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>58,46; 62,0</t>
+          <t>58,75; 62,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>65,87; 69,2</t>
+          <t>66,02; 69,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>59,51; 62,9</t>
+          <t>59,45; 62,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,45; 53,9</t>
+          <t>38,5; 54,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,36; 53,75</t>
+          <t>51,35; 53,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>59,55; 62,0</t>
+          <t>59,63; 62,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>54,43; 56,94</t>
+          <t>54,44; 56,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,89; 43,84</t>
+          <t>33,61; 42,54</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>203443</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>217665</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>192112</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>160057</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>149106</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>160677</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>175052</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>151526</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>352550</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>378343</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>367164</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>311583</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>181469; 225223</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>198343; 243067</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>172507; 213778</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>139637; 181676</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>132904; 167995</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>141477; 178811</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>156123; 194241</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>135005; 169253</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>324616; 381890</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>345338; 404987</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>337189; 397325</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>284231; 337721</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>161762</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>217646</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>178420</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>146340</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>194962</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>206254</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>184417</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>115138</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>356724</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>423900</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>362837</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>261477</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>141535; 180208</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>193008; 237826</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>159547; 197263</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>125991; 167738</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>174059; 212067</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>188475; 227310</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>164837; 203468</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>100915; 131855</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>331155; 385034</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>393049; 453238</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>334240; 389041</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>238303; 286479</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>244722</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>359892</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>288286</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>135352</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>93942</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>182340</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>110323</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>74022</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>338664</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>542232</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>398608</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>209373</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>222115; 267332</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>331769; 384467</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>264971; 311986</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>49268; 221146</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81209; 105727</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>166958; 196714</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>97436; 121321</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>64191; 84769</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>309554; 363652</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>512785; 570607</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>372573; 424687</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>85650; 304912</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>600796</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>661524</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>608645</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>383057</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>424837</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>483199</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>441832</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>491896</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1025634</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1144724</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1050477</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>874953</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>567162; 636615</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>627763; 693648</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>575913; 644257</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>351732; 415413</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>399778; 449048</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>456156; 509197</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>413921; 470767</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>352189; 720499</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>984684; 1070372</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1094476; 1186204</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1001904; 1088969</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>729884; 1190427</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>170004</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>288103</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>327685</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>181404</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>346063</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>559779</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>517054</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>361159</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>516067</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>847882</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>844738</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>542563</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>152393; 188841</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>266143; 310683</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>304601; 356920</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>160265; 204746</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>322022; 370681</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>534032; 582598</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>491061; 541574</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>258050; 410131</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>484355; 547731</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>808507; 881479</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>806783; 878148</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>450348; 592780</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>70350</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>98397</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>91699</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>60499</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>831860</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>805655</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>732358</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>340767</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>902210</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>904052</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>824057</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>401266</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55616; 84212</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>83484; 114288</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>78172; 107939</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>39163; 85456</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>799203; 866260</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>772321; 832446</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>698596; 759480</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>314682; 365301</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>864787; 940346</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>868056; 943634</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>786739; 861122</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>368131; 434962</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1714</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3443</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3928</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3540</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1451078</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1843227</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1686847</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1066708</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2040771</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2397905</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2161035</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1534507</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3491849</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4241132</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3847881</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2601215</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1392784; 1507647</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1783544; 1901746</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1626259; 1748671</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>847260; 1171380</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1984792; 2096394</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2343648; 2456436</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2099360; 2219657</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1377497; 1937183</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3414032; 3578311</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4157191; 4325228</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3765985; 3924873</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2337048; 2958346</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2A_enfcro_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
